--- a/TGA_FTIR_tools/settings/Fitting_parameter.xlsx
+++ b/TGA_FTIR_tools/settings/Fitting_parameter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddittman\Desktop\Paper - Aktivkohlecharakterisierung\06_TGA-FTIR\TGA-FTIR-hyphenation-tool-kit-master_8PAC_washed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\UBA_Promotion\3_TGA_FTIR\TGA-FTIR-hyphenation-tool-kit\TGA_FTIR_tools\settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B039EACE-F01F-4AD8-9AB9-9D745961F528}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD7246F-FE6A-4196-B262-B706AA4F13FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="685" xr2:uid="{BEEF2067-4EA6-4258-BE20-4BC7D06DB951}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="685" xr2:uid="{BEEF2067-4EA6-4258-BE20-4BC7D06DB951}"/>
   </bookViews>
   <sheets>
     <sheet name="center_0" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
   <si>
     <t>figueiredo1999</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>li2011a</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -586,7 +589,7 @@
   <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,7 +1243,30 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="1">
+        <v>245</v>
+      </c>
+      <c r="D17" s="1">
+        <v>380</v>
+      </c>
+      <c r="E17" s="1">
+        <v>500</v>
+      </c>
+      <c r="K17" s="3">
+        <v>255</v>
+      </c>
+      <c r="L17" s="3">
+        <v>410</v>
+      </c>
+      <c r="M17" s="1">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -2020,7 +2046,7 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v/>
+        <v>test</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -2674,7 +2700,7 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v/>
+        <v>test</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -3560,7 +3586,7 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v/>
+        <v>test</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -4443,7 +4469,7 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v/>
+        <v>test</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -5498,7 +5524,7 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v/>
+        <v>test</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -6384,7 +6410,7 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v/>
+        <v>test</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -7823,7 +7849,7 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v/>
+        <v>test</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -8878,7 +8904,7 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v/>
+        <v>test</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -9764,7 +9790,7 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f>IF(ISBLANK(center_0!A17),"",center_0!A17)</f>
-        <v/>
+        <v>test</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
